--- a/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
@@ -499,18 +499,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Trading speed or weapons for armor, the Heavy Tank can soak up a surprisingly heavy level of fire power.
- &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#ffcc00&gt;ICE: Air breathing Combustion Engine. This unit can not deploy in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values       A        S  &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt;       350     35
-&lt;b&gt;Left&lt;/b&gt;         282     35
-&lt;b&gt;Right&lt;/b&gt;       282     35
-&lt;b&gt;Rear&lt;/b&gt;        271     35
-&lt;b&gt;Turret&lt;/b&gt;      240     35
-&lt;b&gt;Total&lt;/b&gt;      1425    175
+  &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
+  &lt;b&gt;&lt;color=#ffcc00&gt;ICE: Air breathing Combustion Engine. This unit can not deploy in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
+  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
+ &lt;b&gt;Structure:&lt;/b&gt; Structure
+ &lt;b&gt;Values A S &lt;/b&gt;
+ &lt;b&gt;Front&lt;/b&gt; 350 35
+ &lt;b&gt;Left&lt;/b&gt; 282 35
+ &lt;b&gt;Right&lt;/b&gt; 282 35
+ &lt;b&gt;Rear&lt;/b&gt; 271 35
+ &lt;b&gt;Turret&lt;/b&gt; 240 35
+ &lt;b&gt;Total&lt;/b&gt; 1425 175
 ---
 Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Trading speed or weapons for armor, the Heavy Tank can soak up a surprisingly heavy level of fire power.
  &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
@@ -550,18 +550,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Trading speed or weapons for armor, the Heavy Tank can soak up a surprisingly heavy level of fire power.
- &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values       A        S  &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt;       374     35
-&lt;b&gt;Left&lt;/b&gt;         269     35
-&lt;b&gt;Right&lt;/b&gt;       269     35
-&lt;b&gt;Rear&lt;/b&gt;        263     35
-&lt;b&gt;Turret&lt;/b&gt;      250     35
-&lt;b&gt;Total&lt;/b&gt;      1425    175
+  &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
+  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
+  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
+ &lt;b&gt;Structure:&lt;/b&gt; Structure
+ &lt;b&gt;Values A S &lt;/b&gt;
+ &lt;b&gt;Front&lt;/b&gt; 374 35
+ &lt;b&gt;Left&lt;/b&gt; 269 35
+ &lt;b&gt;Right&lt;/b&gt; 269 35
+ &lt;b&gt;Rear&lt;/b&gt; 263 35
+ &lt;b&gt;Turret&lt;/b&gt; 250 35
+ &lt;b&gt;Total&lt;/b&gt; 1425 175
 ---
 Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Trading speed or weapons for armor, the Heavy Tank can soak up a surprisingly heavy level of fire power.
  &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
@@ -1005,8 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1313,963 +1312,964 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1">
-      <c r="A16" s="4" t="s">
+    <row r="16" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1">
-      <c r="A19" s="4" t="s">
+    <row r="19" s="3" customFormat="1">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1">
-      <c r="A22" s="4" t="s">
+    <row r="22" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1">
-      <c r="A25" s="4" t="s">
+    <row r="25" s="3" customFormat="1">
+      <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1">
-      <c r="A28" s="4" t="s">
+    <row r="28" s="3" customFormat="1">
+      <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1">
-      <c r="A31" s="4" t="s">
+    <row r="31" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1">
-      <c r="A34" s="4" t="s">
+    <row r="34" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="1">
-      <c r="A36" s="4" t="s">
+    <row r="36" s="3" customFormat="1">
+      <c r="A36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1">
-      <c r="A37" s="4" t="s">
+    <row r="37" s="3" customFormat="1">
+      <c r="A37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1">
-      <c r="A38" s="4" t="s">
+    <row r="38" s="3" customFormat="1">
+      <c r="A38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" s="4" customFormat="1">
-      <c r="A39" s="4" t="s">
+    <row r="39" s="3" customFormat="1">
+      <c r="A39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1">
-      <c r="A40" s="4" t="s">
+    <row r="40" s="3" customFormat="1">
+      <c r="A40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" s="4" customFormat="1">
-      <c r="A41" s="4" t="s">
+    <row r="41" s="3" customFormat="1">
+      <c r="A41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" s="4" customFormat="1">
-      <c r="A42" s="4" t="s">
+    <row r="42" s="3" customFormat="1">
+      <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1">
-      <c r="A43" s="4" t="s">
+    <row r="43" s="3" customFormat="1">
+      <c r="A43" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" s="4" customFormat="1">
-      <c r="A44" s="4" t="s">
+    <row r="44" s="3" customFormat="1">
+      <c r="A44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" s="4" customFormat="1">
-      <c r="A45" s="4" t="s">
+    <row r="45" s="3" customFormat="1">
+      <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1">
-      <c r="A46" s="4" t="s">
+    <row r="46" s="3" customFormat="1">
+      <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" s="4" customFormat="1">
-      <c r="A47" s="4" t="s">
+    <row r="47" s="3" customFormat="1">
+      <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" s="4" customFormat="1">
-      <c r="A48" s="4" t="s">
+    <row r="48" s="3" customFormat="1">
+      <c r="A48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1">
-      <c r="A49" s="4" t="s">
+    <row r="49" s="3" customFormat="1">
+      <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" s="4" customFormat="1">
-      <c r="A51" s="4" t="s">
+    <row r="51" s="3" customFormat="1">
+      <c r="A51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1">
-      <c r="A53" s="4" t="s">
+    <row r="53" s="3" customFormat="1">
+      <c r="A53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="1">
-      <c r="A55" s="4" t="s">
+    <row r="55" s="3" customFormat="1">
+      <c r="A55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" s="4" customFormat="1">
-      <c r="A57" s="4" t="s">
+    <row r="57" s="3" customFormat="1">
+      <c r="A57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" s="4" customFormat="1">
-      <c r="A59" s="4" t="s">
+    <row r="59" s="3" customFormat="1">
+      <c r="A59" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" s="4" customFormat="1">
-      <c r="A61" s="4" t="s">
+    <row r="61" s="3" customFormat="1">
+      <c r="A61" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" s="4" customFormat="1">
-      <c r="A63" s="4" t="s">
+    <row r="63" s="3" customFormat="1">
+      <c r="A63" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" s="4" customFormat="1">
-      <c r="A65" s="4" t="s">
+    <row r="65" s="3" customFormat="1">
+      <c r="A65" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1">
-      <c r="A67" s="4" t="s">
+    <row r="67" s="3" customFormat="1">
+      <c r="A67" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="69" s="4" customFormat="1">
-      <c r="A69" s="4" t="s">
+    <row r="69" s="3" customFormat="1">
+      <c r="A69" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" s="4" customFormat="1">
-      <c r="A71" s="4" t="s">
+    <row r="71" s="3" customFormat="1">
+      <c r="A71" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" s="4" customFormat="1">
-      <c r="A73" s="4" t="s">
+    <row r="73" s="3" customFormat="1">
+      <c r="A73" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" s="4" customFormat="1">
-      <c r="A75" s="4" t="s">
+    <row r="75" s="3" customFormat="1">
+      <c r="A75" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1">
-      <c r="A76" s="4" t="s">
+    <row r="76" s="3" customFormat="1">
+      <c r="A76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" s="4" customFormat="1">
-      <c r="A77" s="4" t="s">
+    <row r="77" s="3" customFormat="1">
+      <c r="A77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" s="4" customFormat="1">
-      <c r="A78" s="4" t="s">
+    <row r="78" s="3" customFormat="1">
+      <c r="A78" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" s="4" customFormat="1">
-      <c r="A79" s="4" t="s">
+    <row r="79" s="3" customFormat="1">
+      <c r="A79" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="80" s="4" customFormat="1">
-      <c r="A80" s="4" t="s">
+    <row r="80" s="3" customFormat="1">
+      <c r="A80" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="81" s="4" customFormat="1">
-      <c r="A81" s="4" t="s">
+    <row r="81" s="3" customFormat="1">
+      <c r="A81" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" s="4" customFormat="1">
-      <c r="A82" s="4" t="s">
+    <row r="82" s="3" customFormat="1">
+      <c r="A82" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" s="4" customFormat="1">
-      <c r="A83" s="4" t="s">
+    <row r="83" s="3" customFormat="1">
+      <c r="A83" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" s="4" customFormat="1">
-      <c r="A84" s="4" t="s">
+    <row r="84" s="3" customFormat="1">
+      <c r="A84" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="85" s="4" customFormat="1">
-      <c r="A85" s="4" t="s">
+    <row r="85" s="3" customFormat="1">
+      <c r="A85" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" s="4" customFormat="1">
-      <c r="A86" s="4" t="s">
+    <row r="86" s="3" customFormat="1">
+      <c r="A86" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" s="4" customFormat="1">
-      <c r="A87" s="4" t="s">
+    <row r="87" s="3" customFormat="1">
+      <c r="A87" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>142</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
@@ -499,18 +499,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Trading speed or weapons for armor, the Heavy Tank can soak up a surprisingly heavy level of fire power.
-  &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;ICE: Air breathing Combustion Engine. This unit can not deploy in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
- &lt;b&gt;Structure:&lt;/b&gt; Structure
- &lt;b&gt;Values A S &lt;/b&gt;
- &lt;b&gt;Front&lt;/b&gt; 350 35
- &lt;b&gt;Left&lt;/b&gt; 282 35
- &lt;b&gt;Right&lt;/b&gt; 282 35
- &lt;b&gt;Rear&lt;/b&gt; 271 35
- &lt;b&gt;Turret&lt;/b&gt; 240 35
- &lt;b&gt;Total&lt;/b&gt; 1425 175
+ &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#ffcc00&gt;ICE: Air breathing Combustion Engine. This unit can not deploy in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Structure:&lt;/b&gt; Structure
+&lt;b&gt;Values       A        S  &lt;/b&gt;
+&lt;b&gt;Front&lt;/b&gt;       350     35
+&lt;b&gt;Left&lt;/b&gt;         282     35
+&lt;b&gt;Right&lt;/b&gt;       282     35
+&lt;b&gt;Rear&lt;/b&gt;        271     35
+&lt;b&gt;Turret&lt;/b&gt;      240     35
+&lt;b&gt;Total&lt;/b&gt;      1425    175
 ---
 Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Trading speed or weapons for armor, the Heavy Tank can soak up a surprisingly heavy level of fire power.
  &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
@@ -550,18 +550,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Trading speed or weapons for armor, the Heavy Tank can soak up a surprisingly heavy level of fire power.
-  &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
- &lt;b&gt;Structure:&lt;/b&gt; Structure
- &lt;b&gt;Values A S &lt;/b&gt;
- &lt;b&gt;Front&lt;/b&gt; 374 35
- &lt;b&gt;Left&lt;/b&gt; 269 35
- &lt;b&gt;Right&lt;/b&gt; 269 35
- &lt;b&gt;Rear&lt;/b&gt; 263 35
- &lt;b&gt;Turret&lt;/b&gt; 250 35
- &lt;b&gt;Total&lt;/b&gt; 1425 175
+ &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Structure:&lt;/b&gt; Structure
+&lt;b&gt;Values       A        S  &lt;/b&gt;
+&lt;b&gt;Front&lt;/b&gt;       374     35
+&lt;b&gt;Left&lt;/b&gt;         269     35
+&lt;b&gt;Right&lt;/b&gt;       269     35
+&lt;b&gt;Rear&lt;/b&gt;        263     35
+&lt;b&gt;Turret&lt;/b&gt;      250     35
+&lt;b&gt;Total&lt;/b&gt;      1425    175
 ---
 Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Trading speed or weapons for armor, the Heavy Tank can soak up a surprisingly heavy level of fire power.
  &lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
@@ -1005,7 +1005,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1312,964 +1313,963 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="4" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="4" customFormat="1">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="4" customFormat="1">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
+    <row r="16" s="4" customFormat="1">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
+    <row r="19" s="4" customFormat="1">
+      <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" s="4" customFormat="1">
+      <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
+    <row r="25" s="4" customFormat="1">
+      <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1">
-      <c r="A28" s="3" t="s">
+    <row r="28" s="4" customFormat="1">
+      <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1">
-      <c r="A31" s="3" t="s">
+    <row r="31" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1">
-      <c r="A34" s="3" t="s">
+    <row r="34" s="4" customFormat="1">
+      <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1">
-      <c r="A36" s="3" t="s">
+    <row r="36" s="4" customFormat="1">
+      <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1">
-      <c r="A37" s="3" t="s">
+    <row r="37" s="4" customFormat="1">
+      <c r="A37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1">
-      <c r="A38" s="3" t="s">
+    <row r="38" s="4" customFormat="1">
+      <c r="A38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1">
-      <c r="A39" s="3" t="s">
+    <row r="39" s="4" customFormat="1">
+      <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1">
-      <c r="A40" s="3" t="s">
+    <row r="40" s="4" customFormat="1">
+      <c r="A40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1">
-      <c r="A41" s="3" t="s">
+    <row r="41" s="4" customFormat="1">
+      <c r="A41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1">
-      <c r="A42" s="3" t="s">
+    <row r="42" s="4" customFormat="1">
+      <c r="A42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1">
-      <c r="A43" s="3" t="s">
+    <row r="43" s="4" customFormat="1">
+      <c r="A43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" s="3" customFormat="1">
-      <c r="A44" s="3" t="s">
+    <row r="44" s="4" customFormat="1">
+      <c r="A44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1">
-      <c r="A45" s="3" t="s">
+    <row r="45" s="4" customFormat="1">
+      <c r="A45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1">
-      <c r="A46" s="3" t="s">
+    <row r="46" s="4" customFormat="1">
+      <c r="A46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" s="3" customFormat="1">
-      <c r="A47" s="3" t="s">
+    <row r="47" s="4" customFormat="1">
+      <c r="A47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1">
-      <c r="A48" s="3" t="s">
+    <row r="48" s="4" customFormat="1">
+      <c r="A48" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1">
-      <c r="A49" s="3" t="s">
+    <row r="49" s="4" customFormat="1">
+      <c r="A49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" s="3" customFormat="1">
-      <c r="A51" s="3" t="s">
+    <row r="51" s="4" customFormat="1">
+      <c r="A51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1">
-      <c r="A53" s="3" t="s">
+    <row r="53" s="4" customFormat="1">
+      <c r="A53" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" s="3" customFormat="1">
-      <c r="A55" s="3" t="s">
+    <row r="55" s="4" customFormat="1">
+      <c r="A55" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" s="3" customFormat="1">
-      <c r="A57" s="3" t="s">
+    <row r="57" s="4" customFormat="1">
+      <c r="A57" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1">
-      <c r="A59" s="3" t="s">
+    <row r="59" s="4" customFormat="1">
+      <c r="A59" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" s="3" customFormat="1">
-      <c r="A61" s="3" t="s">
+    <row r="61" s="4" customFormat="1">
+      <c r="A61" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" s="3" customFormat="1">
-      <c r="A63" s="3" t="s">
+    <row r="63" s="4" customFormat="1">
+      <c r="A63" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="1">
-      <c r="A65" s="3" t="s">
+    <row r="65" s="4" customFormat="1">
+      <c r="A65" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" s="3" customFormat="1">
-      <c r="A67" s="3" t="s">
+    <row r="67" s="4" customFormat="1">
+      <c r="A67" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="69" s="3" customFormat="1">
-      <c r="A69" s="3" t="s">
+    <row r="69" s="4" customFormat="1">
+      <c r="A69" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" s="3" customFormat="1">
-      <c r="A71" s="3" t="s">
+    <row r="71" s="4" customFormat="1">
+      <c r="A71" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" s="3" customFormat="1">
-      <c r="A73" s="3" t="s">
+    <row r="73" s="4" customFormat="1">
+      <c r="A73" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" s="3" customFormat="1">
-      <c r="A75" s="3" t="s">
+    <row r="75" s="4" customFormat="1">
+      <c r="A75" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1">
-      <c r="A76" s="3" t="s">
+    <row r="76" s="4" customFormat="1">
+      <c r="A76" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" s="3" customFormat="1">
-      <c r="A77" s="3" t="s">
+    <row r="77" s="4" customFormat="1">
+      <c r="A77" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" s="3" customFormat="1">
-      <c r="A78" s="3" t="s">
+    <row r="78" s="4" customFormat="1">
+      <c r="A78" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" s="3" customFormat="1">
-      <c r="A79" s="3" t="s">
+    <row r="79" s="4" customFormat="1">
+      <c r="A79" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="80" s="3" customFormat="1">
-      <c r="A80" s="3" t="s">
+    <row r="80" s="4" customFormat="1">
+      <c r="A80" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="81" s="3" customFormat="1">
-      <c r="A81" s="3" t="s">
+    <row r="81" s="4" customFormat="1">
+      <c r="A81" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" s="3" customFormat="1">
-      <c r="A82" s="3" t="s">
+    <row r="82" s="4" customFormat="1">
+      <c r="A82" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1">
-      <c r="A83" s="3" t="s">
+    <row r="83" s="4" customFormat="1">
+      <c r="A83" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" s="3" customFormat="1">
-      <c r="A84" s="3" t="s">
+    <row r="84" s="4" customFormat="1">
+      <c r="A84" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1">
-      <c r="A85" s="3" t="s">
+    <row r="85" s="4" customFormat="1">
+      <c r="A85" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" s="3" customFormat="1">
-      <c r="A86" s="3" t="s">
+    <row r="86" s="4" customFormat="1">
+      <c r="A86" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" s="3" customFormat="1">
-      <c r="A87" s="3" t="s">
+    <row r="87" s="4" customFormat="1">
+      <c r="A87" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>142</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
@@ -825,7 +825,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1131,1486 +1132,1486 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="85.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="67" customWidth="1" style="1"/>
+    <col min="1" max="2" width="85.140625" customWidth="1" style="2"/>
+    <col min="3" max="3" width="67" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="D58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="D64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1">
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1">
+      <c r="D66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="1">
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2">
         <v>67</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="1">
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="1">
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="1">
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
         <v>71</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="D72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="D73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2">
         <v>73</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="D74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="1">
+      <c r="D75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="1">
+      <c r="D76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2">
         <v>76</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="1">
+      <c r="D77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="1">
+      <c r="D78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="1">
+      <c r="D79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="1">
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="1">
+      <c r="D81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1">
+      <c r="D82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2">
         <v>82</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="1">
+      <c r="D83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2">
         <v>83</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="1">
+      <c r="D84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2">
         <v>84</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="1">
+      <c r="D85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="2">
         <v>85</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="1">
+      <c r="D86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="1">
+      <c r="D87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2">
         <v>87</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
@@ -26,7 +26,7 @@
   <si>
     <t xml:space="preserve">Представленный в 2752 году, 10A является дальнобойным задирой. Обе установки SRM-6 заменены одной установка LRM-15 в правой части торса с одной тонной боеприпасов.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t/>
@@ -60,7 +60,7 @@
   <si>
     <t xml:space="preserve">Javelin чрезвычайно эффективен для засад, так же является превосходным разведывательным мехом.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_javelin_JVN-10F.StockRole</t>
@@ -105,7 +105,7 @@
   <si>
     <t xml:space="preserve">Модель 10P является обновлением модели 10N, создана Федеративным Содружеством в условиях большой секретности в 3049 году. 10P сохраняет броню и скорость 10N, удаляет одну из пусковых установок SRM-6 и заменяет ее двумя пусковыми установками Streak SRM-2. Хотя этот вариант немного жертвует огневой мощью, он гораздо более эффективен по расходу боеприпасов, чем оригинальный.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_javelin_JVN-10P.StockRole</t>
@@ -157,7 +157,7 @@
   <si>
     <t xml:space="preserve">Первоначальный прототип 3024 года, который позднее правратился в RVN-3L Raven, этот мех был использован против Федерации Солнц во время Четвертой Войны за Наследие. Поскольку технология двигателей XL еще не была доступна, на мехе был установлен стандартный термоядерный двигатель Omni 175, обеспечивающий максимальную скорость 86 км / ч, и защищеный четырьмя тоннами стандартной брони. Оборудование РЭБ в то время, когда был построен этот мех, состояло из массивного 7,5-тонного экспериментального комплекса радиоэлектронной борьбы, который, к сожалению, не оправдал ожиданий.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-1X.StockRole</t>
@@ -188,7 +188,7 @@
   <si>
     <t xml:space="preserve">Многие мехи Ravens, захваченные Федерацией Солнц в Четвертой войне за Наследство, были переоборудованы в 3030 по стандарту 2X. Этот вариант заменил оборудование РЭБ одним большим лазером.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.98&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.98&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-2X.StockRole</t>
@@ -219,7 +219,7 @@
   <si>
     <t xml:space="preserve">Raven был легким боевым мехом радиоэлектронной борьбы, который впервые дебютировал после окончания Третьей войны за наследство. Он был не только одним из первых действительно оригинальных мехов, созданных за столетия, но и символизировал преодоление человечеством технологического регресса.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-3L.StockRole</t>
@@ -244,7 +244,7 @@
   <si>
     <t xml:space="preserve">В этом варианте, основанном на 3L, были удалены пусковая установка SRM-6, средние лазеры, системы радиоэлектронной борьбы и лазер целеуказания, чтобы превратить Raven в средство огневой поддержки дальнего действия.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-3M.StockRole</t>
@@ -269,7 +269,7 @@
   <si>
     <t xml:space="preserve">Построенный на основе прототипа TSM, Raven 3X является умеренной модернизацией модели 1X.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-3X.StockRole</t>
@@ -294,7 +294,7 @@
   <si>
     <t xml:space="preserve">Капелланский вариант оригинального прототипа. После провала в боевых условиях -1X, - 4X была попытка повторно использовать шасси но с уклоном в боевые характеристики. РЭБ был демонтирован, установлены пять прыжковых двигателей и два пулемета с одной тонной боеприпасов. Броня была наращена до предела шасси в семь тонн. Используется в качестве замены в копьях, которые обычно используют JR7-D, но если есть необходимость в противопехотном вооружении.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.98&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.98&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raven_RVN-4X.StockRole</t>
@@ -322,7 +322,7 @@
   <si>
     <t xml:space="preserve">Fire Javelin - опасный мех для своего тонажа, особенно против других легких мехов и некоторых средних. JVN-10F является достойным легким охотником-убийцей мехов.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_javelin_JVN-10N.Description.Details</t>
@@ -335,7 +335,7 @@
   <si>
     <t xml:space="preserve">Javelin - опасный мех для своего тонажа, особенно против других легких мехов и некоторых средних. JVN-10N является достойным легким охотником-убийцей мехов.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_javelin_JVN-10P.Description.Details</t>
@@ -351,7 +351,7 @@
   <si>
     <t xml:space="preserve">Вторая версия Javelin, носящая название Fire Javelin. Этот модернизированный вариант - опасный мех для своего тонажа, особенно против других легких мехов и некоторых средних. JVN-11A является достойным легким охотником-убийцей мехов.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_javelin_JVN-11B.Description.Details</t>
@@ -359,7 +359,7 @@
   <si>
     <t xml:space="preserve">Javelin - опасный мех для своего тонажа, особенно против других легких мехов и некоторых средних. JVN-10B является достойным легким охотником-убийцей мехов.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.97&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_raven_RVN-1X.Description.Details</t>
@@ -382,7 +382,7 @@
   <si>
     <t xml:space="preserve">Капелланский вариант оригинального прототипа, после провала в боевых условиях -1X, - 4X был попыткой повторно использовать шасси с увеличением боевых возможностей. РЭБ был демонтирован, установлены пять прыжковых двигателей и два пулемета с одной тонной боеприпасов. Броня была увеличена до предела шасси в семь тонн. Используется в качестве замены в копьях, которые обычно использовали JR7-D, но нуждались в большем противопехотном потенциале.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.98&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.98&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>vehiclechassisdef_GALLANT.Description.Details</t>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C1" sqref="C1:C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>chassisdef_javelin_JVN-10A.Description.Details</t>
   </si>
@@ -156,7 +156,7 @@
   </si>
   <si>
     <t xml:space="preserve">Первоначальный прототип 3024 года, который позднее правратился в RVN-3L Raven, этот мех был использован против Федерации Солнц во время Четвертой Войны за Наследие. Поскольку технология двигателей XL еще не была доступна, на мехе был установлен стандартный термоядерный двигатель Omni 175, обеспечивающий максимальную скорость 86 км / ч, и защищеный четырьмя тоннами стандартной брони. Оборудование РЭБ в то время, когда был построен этот мех, состояло из массивного 7,5-тонного экспериментального комплекса радиоэлектронной борьбы, который, к сожалению, не оправдал ожиданий.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Глушитель&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -187,7 +187,7 @@
   </si>
   <si>
     <t xml:space="preserve">Многие мехи Ravens, захваченные Федерацией Солнц в Четвертой войне за Наследство, были переоборудованы в 3030 по стандарту 2X. Этот вариант заменил оборудование РЭБ одним большим лазером.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Шустрый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.98&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -218,7 +218,7 @@
   </si>
   <si>
     <t xml:space="preserve">Raven был легким боевым мехом радиоэлектронной борьбы, который впервые дебютировал после окончания Третьей войны за наследство. Он был не только одним из первых действительно оригинальных мехов, созданных за столетия, но и символизировал преодоление человечеством технологического регресса.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Глушитель&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -243,7 +243,7 @@
   </si>
   <si>
     <t xml:space="preserve">В этом варианте, основанном на 3L, были удалены пусковая установка SRM-6, средние лазеры, системы радиоэлектронной борьбы и лазер целеуказания, чтобы превратить Raven в средство огневой поддержки дальнего действия.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Глушитель&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -268,7 +268,7 @@
   </si>
   <si>
     <t xml:space="preserve">Построенный на основе прототипа TSM, Raven 3X является умеренной модернизацией модели 1X.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Глушитель&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -293,7 +293,7 @@
   </si>
   <si>
     <t xml:space="preserve">Капелланский вариант оригинального прототипа. После провала в боевых условиях -1X, - 4X была попытка повторно использовать шасси но с уклоном в боевые характеристики. РЭБ был демонтирован, установлены пять прыжковых двигателей и два пулемета с одной тонной боеприпасов. Броня была наращена до предела шасси в семь тонн. Используется в качестве замены в копьях, которые обычно используют JR7-D, но если есть необходимость в противопехотном вооружении.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Шустрый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.98&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -381,7 +381,7 @@
   </si>
   <si>
     <t xml:space="preserve">Капелланский вариант оригинального прототипа, после провала в боевых условиях -1X, - 4X был попыткой повторно использовать шасси с увеличением боевых возможностей. РЭБ был демонтирован, установлены пять прыжковых двигателей и два пулемета с одной тонной боеприпасов. Броня была увеличена до предела шасси в семь тонн. Используется в качестве замены в копьях, которые обычно использовали JR7-D, но нуждались в большем противопехотном потенциале.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Шустрый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.98&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -404,19 +404,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Более медленный, чем Средний танк, но обладающий более тяжелой броней и огневой мощью, Тяжелый танк является грозным бойцом. Обменяв скорость или вооружение на броню, Тяжелый танк может выдержать очень тяжелый обстрел.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;ICE: Air breathing Combustion Engine. This unit can not deploy in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Armor
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 300 35
-&lt;b&gt;Left&lt;/b&gt; 275 35
-&lt;b&gt;Right&lt;/b&gt; 275 35
-&lt;b&gt;Rear&lt;/b&gt; 300 35
-&lt;b&gt;Turret&lt;/b&gt; 250 35
-&lt;b&gt;Total&lt;/b&gt; 1400 175</t>
+    <t xml:space="preserve">Медленнее среднего танка, но обладающий превосходной огневой мощью и бронёй, тяжёлый танк - это грозный боец. Жертвуя скоростью и оружием в пользу брони, он может впитывать удивительно много урона.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;ДВС: Атмосферный двигатель внутреннего сгорания. Эта машина не может эксплуатироваться в условиях разреженного воздуха.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Armor
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 300 35
+&lt;b&gt;Левая&lt;/b&gt; 275 35
+&lt;b&gt;Правая&lt;/b&gt; 275 35
+&lt;b&gt;Задняя&lt;/b&gt; 300 35
+&lt;b&gt;Башня&lt;/b&gt; 250 35
+&lt;b&gt;Итого&lt;/b&gt; 1400 175</t>
   </si>
   <si>
     <t>vehiclechassisdef_GALLANT.YangsThoughts</t>
@@ -447,19 +447,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Более медленный, чем Средний танк, но обладающий более тяжелой броней и огневой мощью, Тяжелый танк является грозным бойцом. Обменяв скорость или вооружение на броню, Тяжелый танк может выдержать очень тяжелый обстрел.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;ICE: Air breathing Combustion Engine. This unit can not deploy in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 350 35
-&lt;b&gt;Left&lt;/b&gt; 282 35
-&lt;b&gt;Right&lt;/b&gt; 282 35
-&lt;b&gt;Rear&lt;/b&gt; 271 35
-&lt;b&gt;Turret&lt;/b&gt; 240 35
-&lt;b&gt;Total&lt;/b&gt; 1425 175</t>
+    <t xml:space="preserve">Медленнее среднего танка, но обладающий превосходной огневой мощью и бронёй, тяжёлый танк - это грозный боец. Жертвуя скоростью и оружием в пользу брони, он может впитывать удивительно много урона.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;ДВС: Атмосферный двигатель внутреннего сгорания. Эта машина не может эксплуатироваться в условиях разреженного воздуха.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 350 35
+&lt;b&gt;Левая&lt;/b&gt; 282 35
+&lt;b&gt;Правая&lt;/b&gt; 282 35
+&lt;b&gt;Задняя&lt;/b&gt; 247 35
+&lt;b&gt;Башня&lt;/b&gt; 240 35
+&lt;b&gt;Итого&lt;/b&gt; 1401 175</t>
   </si>
   <si>
     <t>vehiclechassisdef_GALLANT_3050.YangsThoughts</t>
@@ -484,19 +484,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Более медленный, чем Средний танк, но обладающий более тяжелой броней и огневой мощью, Тяжелый танк является грозным бойцом. Обменяв скорость или вооружение на броню, Тяжелый танк может выдержать очень тяжелый обстрел.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 374 35
-&lt;b&gt;Left&lt;/b&gt; 269 35
-&lt;b&gt;Right&lt;/b&gt; 269 35
-&lt;b&gt;Rear&lt;/b&gt; 263 35
-&lt;b&gt;Turret&lt;/b&gt; 250 35
-&lt;b&gt;Total&lt;/b&gt; 1425 175</t>
+    <t xml:space="preserve">Медленнее среднего танка, но обладающий превосходной огневой мощью и бронёй, тяжёлый танк - это грозный боец. Жертвуя скоростью и оружием в пользу брони, он может впитывать удивительно много урона.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 374 35
+&lt;b&gt;Левая&lt;/b&gt; 269 35
+&lt;b&gt;Правая&lt;/b&gt; 269 35
+&lt;b&gt;Задняя&lt;/b&gt; 239 35
+&lt;b&gt;Башня&lt;/b&gt; 250 35
+&lt;b&gt;Итого&lt;/b&gt; 1401 175</t>
   </si>
   <si>
     <t>vehiclechassisdef_GALLANT_FUSION.YangsThoughts</t>
@@ -520,18 +520,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">БТР не являются боевыми машинами, их основная функция - транспортировка отрядов пехоты до поля боя. Однако многие варианты БТР жертвуют вместимостью войск для установки тяжелого вооружения.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 7/11 Hex: 210/330 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Armor
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 80 10
-&lt;b&gt;Left&lt;/b&gt; 80 10
-&lt;b&gt;Right&lt;/b&gt; 80 10
-&lt;b&gt;Rear&lt;/b&gt; 80 10
-&lt;b&gt;Total&lt;/b&gt; 320 40</t>
+    <t xml:space="preserve">БТР не являются боевыми машинами, поскольку их основная функция - перевозить отряды пехоты из одного боя в другой. Однако многие варианты БТР жертвуют пассажирскими местами ради большего вооружения.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 7/11 Hex: 210/330 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Armor
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 80 10
+&lt;b&gt;Левая&lt;/b&gt; 80 10
+&lt;b&gt;Правая&lt;/b&gt; 80 10
+&lt;b&gt;Задняя&lt;/b&gt; 80 10
+&lt;b&gt;Итого&lt;/b&gt; 320 40</t>
   </si>
   <si>
     <t>vehiclechassisdef_PACKRAT.YangsThoughts</t>
@@ -561,18 +561,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">БТР не являются боевыми машинами, их основная функция - транспортировка отрядов пехоты до поля боя. Однако многие варианты БТР жертвуют вместимостью войск для установки тяжелого вооружения.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;ICE: Air breathing Combustion Engine. This unit can not deploy in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 7/11 Hex: 210/330 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Armor
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 60 10
-&lt;b&gt;Left&lt;/b&gt; 60 10
-&lt;b&gt;Right&lt;/b&gt; 60 10
-&lt;b&gt;Rear&lt;/b&gt; 60 10
-&lt;b&gt;Total&lt;/b&gt; 240 40</t>
+    <t xml:space="preserve">БТР не являются боевыми машинами, поскольку их основная функция - перевозить отряды пехоты из одного боя в другой. Однако многие варианты БТР жертвуют пассажирскими местами ради большего вооружения.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;ДВС: Атмосферный двигатель внутреннего сгорания. Эта машина не может эксплуатироваться в условиях разреженного воздуха.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 7/11 Hex: 210/330 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Armor
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 60 10
+&lt;b&gt;Левая&lt;/b&gt; 60 10
+&lt;b&gt;Правая&lt;/b&gt; 60 10
+&lt;b&gt;Задняя&lt;/b&gt; 60 10
+&lt;b&gt;Итого&lt;/b&gt; 240 40</t>
   </si>
   <si>
     <t>vehiclechassisdef_PACKRAT_ICE.YangsThoughts</t>
@@ -608,18 +608,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Быстрый и универсальный, Легкий танк плохо подходит для прямого боя, но имеет множество других применений. В качестве разведчика или передового дозора, Легкий танк постоянно находится в движении, разведывая территорию впереди основных войск.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 45 10
-&lt;b&gt;Left&lt;/b&gt; 20 10
-&lt;b&gt;Right&lt;/b&gt; 20 10
-&lt;b&gt;Rear&lt;/b&gt; 4 10
-&lt;b&gt;Total&lt;/b&gt; 89 40</t>
+    <t xml:space="preserve">Быстрый легкий танк плохо подходит для прямого столкновения, но имеет множество других применений. Предназначенный для разведки, легкий танк постоянно в движении, опережая остальные войска.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 45 10
+&lt;b&gt;Левая&lt;/b&gt; 20 10
+&lt;b&gt;Правая&lt;/b&gt; 20 10
+&lt;b&gt;Задняя&lt;/b&gt; 4 10
+&lt;b&gt;Итого&lt;/b&gt; 89 40</t>
   </si>
   <si>
     <t>vehiclechassisdef_ROTUNDA.YangsThoughts</t>
@@ -644,19 +644,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Быстрый и универсальный, Light Tank плохо подходит для прямого боя, но имеет множество других применений. Вооруженный дальнобойным оружием, Light Tank предназначен для поддержки союзников с большой дистанции.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 30 10
-&lt;b&gt;Left&lt;/b&gt; 20 10
-&lt;b&gt;Right&lt;/b&gt; 20 10
-&lt;b&gt;Rear&lt;/b&gt; 5 10
-&lt;b&gt;Turret&lt;/b&gt; 15 10
-&lt;b&gt;Total&lt;/b&gt; 90 50</t>
+    <t xml:space="preserve">Быстрый легкий танк плохо подходит для прямого столкновения, но имеет множество других применений. Легкий танк, вооруженный разнообразным оружием дальнего боя, предназначен для поддержки союзных юнитов на расстоянии.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 30 10
+&lt;b&gt;Левая&lt;/b&gt; 20 10
+&lt;b&gt;Правая&lt;/b&gt; 20 10
+&lt;b&gt;Задняя&lt;/b&gt; 5 10
+&lt;b&gt;Башня&lt;/b&gt; 15 10
+&lt;b&gt;Итого&lt;/b&gt; 90 50</t>
   </si>
   <si>
     <t>vehiclechassisdef_ROTUNDA_J111.YangsThoughts</t>
@@ -680,18 +680,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Быстрый и универсальный, Легкий танк плохо подходит для прямого боя, но имеет множество других применений. Вооруженный дальнобойным оружием, Легкий танк предназначен для поддержки союзников с большой дистанции.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;ICE: Air breathing Combustion Engine. This unit can not deploy in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 63 10
-&lt;b&gt;Left&lt;/b&gt; 45 10
-&lt;b&gt;Right&lt;/b&gt; 45 10
-&lt;b&gt;Rear&lt;/b&gt; 25 10
-&lt;b&gt;Total&lt;/b&gt; 178 40</t>
+    <t xml:space="preserve">Быстрый легкий танк плохо подходит для прямого столкновения, но имеет множество других применений. Легкий танк, вооруженный разнообразным оружием дальнего боя, предназначен для поддержки союзных юнитов на расстоянии.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;ДВС: Атмосферный двигатель внутреннего сгорания. Эта машина не может эксплуатироваться в условиях разреженного воздуха.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 63 10
+&lt;b&gt;Левая&lt;/b&gt; 45 10
+&lt;b&gt;Правая&lt;/b&gt; 45 10
+&lt;b&gt;Задняя&lt;/b&gt; 25 10
+&lt;b&gt;Итого&lt;/b&gt; 178 40</t>
   </si>
   <si>
     <t>vehiclechassisdef_ROTUNDA_LRM.YangsThoughts</t>
@@ -716,19 +716,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Быстрый и универсальный, Легкий танк плохо подходит для прямого боя, но имеет множество других применений. Вооруженный дальнобойным оружием, Легкий танк предназначен для поддержки союзников с большой дистанции.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;ICE: Air breathing Combustion Engine. This unit can not deploy in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 45 10
-&lt;b&gt;Left&lt;/b&gt; 35 10
-&lt;b&gt;Right&lt;/b&gt; 35 10
-&lt;b&gt;Rear&lt;/b&gt; 11 10
-&lt;b&gt;Turret&lt;/b&gt; 35 10
-&lt;b&gt;Total&lt;/b&gt; 161 50</t>
+    <t xml:space="preserve">Быстрый легкий танк плохо подходит для прямого столкновения, но имеет множество других применений. Легкий танк, вооруженный разнообразным оружием дальнего боя, предназначен для поддержки союзных юнитов на расстоянии.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;ДВС: Атмосферный двигатель внутреннего сгорания. Эта машина не может эксплуатироваться в условиях разреженного воздуха.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 45 10
+&lt;b&gt;Левая&lt;/b&gt; 35 10
+&lt;b&gt;Правая&lt;/b&gt; 35 10
+&lt;b&gt;Задняя&lt;/b&gt; 11 10
+&lt;b&gt;Башня&lt;/b&gt; 35 10
+&lt;b&gt;Итого&lt;/b&gt; 161 50</t>
   </si>
   <si>
     <t>vehiclechassisdef_ROTUNDA_RL.YangsThoughts</t>
@@ -768,21 +768,6 @@
   </si>
   <si>
     <t>vehicledef_ROTUNDA_J111.Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Быстрый и универсальный, Легкий танк плохо подходит для прямого боя, но имеет множество других применений. Вооруженный дальнобойным оружием, Легкий танк предназначен для поддержки союзников с большой дистанции.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 30 10
-&lt;b&gt;Left&lt;/b&gt; 20 10
-&lt;b&gt;Right&lt;/b&gt; 20 10
-&lt;b&gt;Rear&lt;/b&gt; 5 10
-&lt;b&gt;Turret&lt;/b&gt; 15 10
-&lt;b&gt;Total&lt;/b&gt; 90 50</t>
   </si>
   <si>
     <t>vehicledef_ROTUNDA_LRM.Description.Details</t>
@@ -1126,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C87"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2555,7 +2540,7 @@
         <v>138</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
@@ -2566,7 +2551,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>142</v>
@@ -2583,7 +2568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>146</v>
@@ -2600,7 +2585,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>142</v>
